--- a/PROJECTS MACRO/Monitoring Performance Shipment/Results/WOW and MOM/WOW and MOM Report Performance Shipment 2024.xlsx
+++ b/PROJECTS MACRO/Monitoring Performance Shipment/Results/WOW and MOM/WOW and MOM Report Performance Shipment 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25911"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\Bersama\IT\RPA 00\Monitoring Performance Shipment\Results\WOW and MOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A7856DD-73F8-4963-9367-FE2E8982C0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48451227-5912-4A9F-9761-8B90173FF176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9A8BEC23-9DB1-470E-B56A-41CA8FA3795F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{47B95BBE-8FD3-484E-B758-08DE6B61AB64}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORT1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="37">
   <si>
     <t>FACTORY</t>
   </si>
@@ -142,18 +143,6 @@
   </si>
   <si>
     <t>MONTH ON MONTH</t>
-  </si>
-  <si>
-    <t>NOTE: Sesuai Target</t>
-  </si>
-  <si>
-    <t>PARAMETER:  -0 s/d -0.25 %</t>
-  </si>
-  <si>
-    <t>NOTE: Mendekati Target</t>
-  </si>
-  <si>
-    <t>PARAMETER:  -0.25 % s/d -0.9 %</t>
   </si>
   <si>
     <t>► PERFORMANCE SHIPMENT 2024</t>
@@ -290,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,20 +346,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -507,21 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -536,7 +498,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -669,34 +631,18 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{1B25CC0E-7F21-457A-BFE3-998A9EDE4440}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{AA9AE8A0-A65E-4276-B659-0CFA72588F63}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -712,7 +658,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1000,16 +946,16 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F145F1-10D9-41A7-9F36-FA3FA827697E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB90AA3F-CBAF-4A28-AE6D-7416E8589401}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:EC33"/>
+  <dimension ref="A1:EC27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1022,35 +968,35 @@
   <cols>
     <col min="1" max="1" width="27.7109375" style="49" customWidth="1"/>
     <col min="2" max="11" width="11.5703125" style="50" customWidth="1"/>
-    <col min="12" max="12" width="0.28515625" style="54" customWidth="1"/>
+    <col min="12" max="12" width="0.28515625" style="52" customWidth="1"/>
     <col min="13" max="22" width="11.5703125" style="50" customWidth="1"/>
-    <col min="23" max="23" width="0.28515625" style="54" customWidth="1"/>
+    <col min="23" max="23" width="0.28515625" style="52" customWidth="1"/>
     <col min="24" max="33" width="11.5703125" style="50" customWidth="1"/>
-    <col min="34" max="34" width="0.28515625" style="54" customWidth="1"/>
+    <col min="34" max="34" width="0.28515625" style="52" customWidth="1"/>
     <col min="35" max="44" width="11.5703125" style="50" customWidth="1"/>
-    <col min="45" max="45" width="0.28515625" style="54" customWidth="1"/>
+    <col min="45" max="45" width="0.28515625" style="52" customWidth="1"/>
     <col min="46" max="55" width="11.5703125" style="50" customWidth="1"/>
-    <col min="56" max="56" width="0.28515625" style="54" customWidth="1"/>
+    <col min="56" max="56" width="0.28515625" style="52" customWidth="1"/>
     <col min="57" max="66" width="11.5703125" style="50" customWidth="1"/>
-    <col min="67" max="67" width="0.28515625" style="54" customWidth="1"/>
+    <col min="67" max="67" width="0.28515625" style="52" customWidth="1"/>
     <col min="68" max="77" width="11.5703125" style="50" customWidth="1"/>
-    <col min="78" max="78" width="0.28515625" style="54" customWidth="1"/>
+    <col min="78" max="78" width="0.28515625" style="52" customWidth="1"/>
     <col min="79" max="88" width="11.5703125" style="50" customWidth="1"/>
-    <col min="89" max="89" width="0.28515625" style="54" customWidth="1"/>
+    <col min="89" max="89" width="0.28515625" style="52" customWidth="1"/>
     <col min="90" max="99" width="11.5703125" style="50" customWidth="1"/>
-    <col min="100" max="100" width="0.28515625" style="54" customWidth="1"/>
+    <col min="100" max="100" width="0.28515625" style="52" customWidth="1"/>
     <col min="101" max="110" width="11.5703125" style="50" customWidth="1"/>
-    <col min="111" max="111" width="0.28515625" style="54" customWidth="1"/>
+    <col min="111" max="111" width="0.28515625" style="52" customWidth="1"/>
     <col min="112" max="121" width="11.5703125" style="50" customWidth="1"/>
-    <col min="122" max="122" width="0.28515625" style="54" customWidth="1"/>
+    <col min="122" max="122" width="0.28515625" style="52" customWidth="1"/>
     <col min="123" max="132" width="11.5703125" style="50" customWidth="1"/>
-    <col min="133" max="133" width="0.28515625" style="54" customWidth="1"/>
+    <col min="133" max="133" width="0.28515625" style="52" customWidth="1"/>
     <col min="134" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:133" s="2" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2359,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="DI6" s="20">
-        <v>0</v>
+        <v>-3.3304942528735504E-2</v>
       </c>
       <c r="DJ6" s="20">
         <v>0</v>
@@ -2374,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="DN6" s="20">
-        <v>0</v>
+        <v>-0.10569170519784754</v>
       </c>
       <c r="DO6" s="20">
         <v>0</v>
@@ -2387,7 +2333,7 @@
       </c>
       <c r="DR6" s="21"/>
       <c r="DS6" s="20">
-        <v>0</v>
+        <v>-0.11356482670089862</v>
       </c>
       <c r="DT6" s="20">
         <v>0</v>
@@ -2402,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="DX6" s="20">
-        <v>0</v>
+        <v>-3.345408920801729E-2</v>
       </c>
       <c r="DY6" s="20">
         <v>0</v>
@@ -3456,19 +3402,19 @@
       </c>
       <c r="CV9" s="24"/>
       <c r="CW9" s="23">
-        <v>0</v>
+        <v>4.0668662674650635E-2</v>
       </c>
       <c r="CX9" s="23">
-        <v>0</v>
+        <v>2.857142857142847E-2</v>
       </c>
       <c r="CY9" s="23">
-        <v>0</v>
+        <v>9.5162569389373175E-3</v>
       </c>
       <c r="CZ9" s="23">
-        <v>0</v>
+        <v>1.7937219730941312E-3</v>
       </c>
       <c r="DA9" s="23">
-        <v>0</v>
+        <v>-1.9708914493632546E-2</v>
       </c>
       <c r="DB9" s="23">
         <v>0</v>
@@ -3477,41 +3423,41 @@
         <v>0</v>
       </c>
       <c r="DD9" s="23">
-        <v>0</v>
+        <v>-1.1769321302471658E-3</v>
       </c>
       <c r="DE9" s="23">
-        <v>0</v>
+        <v>-4.2992261392948983E-4</v>
       </c>
       <c r="DF9" s="23">
         <v>0</v>
       </c>
       <c r="DG9" s="24"/>
       <c r="DH9" s="23">
-        <v>0</v>
+        <v>2.1940928270042237E-2</v>
       </c>
       <c r="DI9" s="23">
-        <v>0</v>
+        <v>2.5737575201899121E-2</v>
       </c>
       <c r="DJ9" s="23">
-        <v>0</v>
+        <v>-3.2341526520052177E-3</v>
       </c>
       <c r="DK9" s="23">
-        <v>0</v>
+        <v>-0.12159143757958313</v>
       </c>
       <c r="DL9" s="23">
         <v>0</v>
       </c>
       <c r="DM9" s="23">
-        <v>0</v>
+        <v>-4.1118421052631637E-3</v>
       </c>
       <c r="DN9" s="23">
-        <v>0</v>
+        <v>-2.1504567378879624E-2</v>
       </c>
       <c r="DO9" s="23">
-        <v>0</v>
+        <v>-4.2003231017770926E-3</v>
       </c>
       <c r="DP9" s="23">
-        <v>0</v>
+        <v>-0.13318777076377031</v>
       </c>
       <c r="DQ9" s="23">
         <v>0</v>
@@ -4247,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="DJ11" s="23">
-        <v>0</v>
+        <v>-2.8266085059978185E-2</v>
       </c>
       <c r="DK11" s="23">
         <v>0</v>
@@ -4259,10 +4205,10 @@
         <v>0</v>
       </c>
       <c r="DN11" s="23">
-        <v>0</v>
+        <v>-7.317107765401365E-2</v>
       </c>
       <c r="DO11" s="23">
-        <v>0</v>
+        <v>-6.437497353621624E-2</v>
       </c>
       <c r="DP11" s="23">
         <v>0</v>
@@ -4293,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="DZ11" s="23">
-        <v>0</v>
+        <v>-0.98490443799606919</v>
       </c>
       <c r="EA11" s="23">
         <v>0</v>
@@ -4587,62 +4533,62 @@
       </c>
       <c r="CV12" s="21"/>
       <c r="CW12" s="20">
-        <v>-0.15000428535679877</v>
+        <v>3.7897525835806078E-3</v>
       </c>
       <c r="CX12" s="20">
-        <v>0</v>
+        <v>0.10062594467866981</v>
       </c>
       <c r="CY12" s="20">
-        <v>0</v>
+        <v>2.1038910484041273E-2</v>
       </c>
       <c r="CZ12" s="20">
-        <v>0</v>
+        <v>0.17568425929906828</v>
       </c>
       <c r="DA12" s="20">
-        <v>0</v>
+        <v>-4.0679480984766259E-2</v>
       </c>
       <c r="DB12" s="20">
-        <v>-0.19723563272295686</v>
+        <v>-9.6623371183887752E-2</v>
       </c>
       <c r="DC12" s="20">
-        <v>0</v>
+        <v>-0.22037502503567252</v>
       </c>
       <c r="DD12" s="20">
-        <v>0</v>
+        <v>-2.3860772648756412E-2</v>
       </c>
       <c r="DE12" s="20">
-        <v>0</v>
+        <v>-0.19627474888949181</v>
       </c>
       <c r="DF12" s="20">
-        <v>0</v>
+        <v>-4.4063776901246521E-2</v>
       </c>
       <c r="DG12" s="21"/>
       <c r="DH12" s="20">
-        <v>0</v>
+        <v>1.3711855302562914E-2</v>
       </c>
       <c r="DI12" s="20">
-        <v>0</v>
+        <v>-0.21075796386141399</v>
       </c>
       <c r="DJ12" s="20">
         <v>0</v>
       </c>
       <c r="DK12" s="20">
-        <v>0</v>
+        <v>0.15865289276536731</v>
       </c>
       <c r="DL12" s="20">
         <v>0</v>
       </c>
       <c r="DM12" s="20">
-        <v>0</v>
+        <v>-0.29036482619592163</v>
       </c>
       <c r="DN12" s="20">
-        <v>0</v>
+        <v>-8.8854463577596965E-2</v>
       </c>
       <c r="DO12" s="20">
         <v>0</v>
       </c>
       <c r="DP12" s="20">
-        <v>0</v>
+        <v>-0.10989464328982512</v>
       </c>
       <c r="DQ12" s="20">
         <v>0</v>
@@ -4655,25 +4601,25 @@
         <v>0</v>
       </c>
       <c r="DU12" s="20">
-        <v>0</v>
+        <v>-0.14710890960890954</v>
       </c>
       <c r="DV12" s="20">
-        <v>0</v>
+        <v>0.14544907613443436</v>
       </c>
       <c r="DW12" s="20">
         <v>0</v>
       </c>
       <c r="DX12" s="20">
-        <v>0</v>
+        <v>-3.0559700899768227E-4</v>
       </c>
       <c r="DY12" s="20">
         <v>0</v>
       </c>
       <c r="DZ12" s="20">
-        <v>0</v>
+        <v>3.4924601220863716E-2</v>
       </c>
       <c r="EA12" s="20">
-        <v>0</v>
+        <v>-8.4720578305313987E-3</v>
       </c>
       <c r="EB12" s="20">
         <v>0</v>
@@ -5016,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="DO13" s="23">
-        <v>0</v>
+        <v>-8.7869714540833588E-4</v>
       </c>
       <c r="DP13" s="23">
         <v>0</v>
@@ -5344,90 +5290,90 @@
         <v>2.375036862770008E-2</v>
       </c>
       <c r="CX14" s="20">
-        <v>0</v>
+        <v>2.4373528271051548E-2</v>
       </c>
       <c r="CY14" s="20">
-        <v>0</v>
+        <v>2.9650229272644824E-2</v>
       </c>
       <c r="CZ14" s="20">
-        <v>0</v>
+        <v>-1.5340784571553634E-3</v>
       </c>
       <c r="DA14" s="20">
-        <v>0</v>
+        <v>6.1620006575330954E-2</v>
       </c>
       <c r="DB14" s="20">
         <v>-5.9340178327900173E-3</v>
       </c>
       <c r="DC14" s="20">
-        <v>0</v>
+        <v>-1.7556031407472306E-2</v>
       </c>
       <c r="DD14" s="20">
-        <v>0</v>
+        <v>-1.0413020568057485E-2</v>
       </c>
       <c r="DE14" s="20">
-        <v>0</v>
+        <v>-1.5340784571553634E-3</v>
       </c>
       <c r="DF14" s="20">
-        <v>0</v>
+        <v>-7.6827808441007894E-3</v>
       </c>
       <c r="DG14" s="21"/>
       <c r="DH14" s="20">
-        <v>0</v>
+        <v>0.1675965605747809</v>
       </c>
       <c r="DI14" s="20">
-        <v>0</v>
+        <v>0.27530546503541009</v>
       </c>
       <c r="DJ14" s="20">
-        <v>0</v>
+        <v>-3.1341805014688529E-3</v>
       </c>
       <c r="DK14" s="20">
-        <v>0</v>
+        <v>-3.7133868280276872E-3</v>
       </c>
       <c r="DL14" s="20">
         <v>0</v>
       </c>
       <c r="DM14" s="20">
-        <v>0</v>
+        <v>-9.5602899613770331E-3</v>
       </c>
       <c r="DN14" s="20">
-        <v>0</v>
+        <v>-1.4293132340189363E-2</v>
       </c>
       <c r="DO14" s="20">
-        <v>0</v>
+        <v>-3.1341805014688529E-3</v>
       </c>
       <c r="DP14" s="20">
-        <v>0</v>
+        <v>-4.0434734081142842E-3</v>
       </c>
       <c r="DQ14" s="20">
         <v>0</v>
       </c>
       <c r="DR14" s="21"/>
       <c r="DS14" s="20">
-        <v>0</v>
+        <v>-8.9074506725126401E-3</v>
       </c>
       <c r="DT14" s="20">
-        <v>0</v>
+        <v>-1.7321336071336013E-2</v>
       </c>
       <c r="DU14" s="20">
-        <v>0</v>
+        <v>-3.915470494417872E-3</v>
       </c>
       <c r="DV14" s="20">
-        <v>0</v>
+        <v>0.12809684113591202</v>
       </c>
       <c r="DW14" s="20">
         <v>0</v>
       </c>
       <c r="DX14" s="20">
-        <v>0</v>
+        <v>-9.6964804634842583E-3</v>
       </c>
       <c r="DY14" s="20">
-        <v>0</v>
+        <v>-1.7321336071336013E-2</v>
       </c>
       <c r="DZ14" s="20">
-        <v>0</v>
+        <v>-3.915470494417872E-3</v>
       </c>
       <c r="EA14" s="20">
-        <v>0</v>
+        <v>-6.5685637169461408E-3</v>
       </c>
       <c r="EB14" s="20">
         <v>0</v>
@@ -6607,93 +6553,93 @@
       </c>
       <c r="CV18" s="29"/>
       <c r="CW18" s="30">
-        <v>-0.12625391672909869</v>
+        <v>6.8208783885931323E-2</v>
       </c>
       <c r="CX18" s="30">
-        <v>0</v>
+        <v>0.15357090152114983</v>
       </c>
       <c r="CY18" s="30">
-        <v>0</v>
+        <v>6.0205396695623414E-2</v>
       </c>
       <c r="CZ18" s="30">
-        <v>0</v>
+        <v>0.17594390281500705</v>
       </c>
       <c r="DA18" s="30">
-        <v>0</v>
+        <v>1.2316110969321503E-3</v>
       </c>
       <c r="DB18" s="28">
-        <v>-0.20316965055574687</v>
+        <v>-0.10255738901667777</v>
       </c>
       <c r="DC18" s="28">
-        <v>0</v>
+        <v>-0.23793105644314483</v>
       </c>
       <c r="DD18" s="28">
-        <v>0</v>
+        <v>-3.5450725347061063E-2</v>
       </c>
       <c r="DE18" s="28">
-        <v>0</v>
+        <v>-0.19823874996057667</v>
       </c>
       <c r="DF18" s="28">
-        <v>0</v>
+        <v>-5.174655774534731E-2</v>
       </c>
       <c r="DG18" s="29"/>
       <c r="DH18" s="30">
-        <v>0</v>
+        <v>0.20324934414738605</v>
       </c>
       <c r="DI18" s="30">
-        <v>0</v>
+        <v>5.698013384715972E-2</v>
       </c>
       <c r="DJ18" s="30">
-        <v>0</v>
+        <v>-3.4634418213452256E-2</v>
       </c>
       <c r="DK18" s="30">
-        <v>0</v>
+        <v>3.33480683577565E-2</v>
       </c>
       <c r="DL18" s="30">
         <v>0</v>
       </c>
       <c r="DM18" s="28">
-        <v>0</v>
+        <v>-0.30403695826256183</v>
       </c>
       <c r="DN18" s="28">
-        <v>0</v>
+        <v>-0.30351494614852714</v>
       </c>
       <c r="DO18" s="28">
-        <v>0</v>
+        <v>-7.2588174284870521E-2</v>
       </c>
       <c r="DP18" s="28">
-        <v>0</v>
+        <v>-0.24712588746170971</v>
       </c>
       <c r="DQ18" s="28">
         <v>0</v>
       </c>
       <c r="DR18" s="29"/>
       <c r="DS18" s="30">
-        <v>0</v>
+        <v>-0.12247227737341126</v>
       </c>
       <c r="DT18" s="30">
-        <v>0</v>
+        <v>-1.7321336071336013E-2</v>
       </c>
       <c r="DU18" s="30">
-        <v>0</v>
+        <v>-0.15102438010332742</v>
       </c>
       <c r="DV18" s="30">
-        <v>0</v>
+        <v>0.27354591727034638</v>
       </c>
       <c r="DW18" s="30">
         <v>0</v>
       </c>
       <c r="DX18" s="28">
-        <v>0</v>
+        <v>-4.3456166680499231E-2</v>
       </c>
       <c r="DY18" s="28">
-        <v>0</v>
+        <v>-1.7321336071336013E-2</v>
       </c>
       <c r="DZ18" s="28">
-        <v>0</v>
+        <v>-0.95389530726962335</v>
       </c>
       <c r="EA18" s="28">
-        <v>0</v>
+        <v>-1.504062154747754E-2</v>
       </c>
       <c r="EB18" s="28">
         <v>0</v>
@@ -6840,14 +6786,14 @@
       <c r="CU19" s="33"/>
       <c r="CV19" s="34"/>
       <c r="CW19" s="33">
-        <v>-6.2906797289136174E-3</v>
+        <v>3.9616934028330331E-3</v>
       </c>
       <c r="CX19" s="33"/>
       <c r="CY19" s="33"/>
       <c r="CZ19" s="33"/>
       <c r="DA19" s="33"/>
       <c r="DB19" s="33">
-        <v>-8.4488653245008427E-3</v>
+        <v>-6.6565055622671565E-3</v>
       </c>
       <c r="DC19" s="33"/>
       <c r="DD19" s="33"/>
@@ -6855,14 +6801,14 @@
       <c r="DF19" s="33"/>
       <c r="DG19" s="34"/>
       <c r="DH19" s="33">
-        <v>0</v>
+        <v>-1.957980008901905E-3</v>
       </c>
       <c r="DI19" s="33"/>
       <c r="DJ19" s="33"/>
       <c r="DK19" s="33"/>
       <c r="DL19" s="33"/>
       <c r="DM19" s="33">
-        <v>0</v>
+        <v>-6.4999996421098993E-3</v>
       </c>
       <c r="DN19" s="33"/>
       <c r="DO19" s="33"/>
@@ -6870,14 +6816,14 @@
       <c r="DQ19" s="33"/>
       <c r="DR19" s="34"/>
       <c r="DS19" s="33">
-        <v>0</v>
+        <v>-1.0283153990231497E-3</v>
       </c>
       <c r="DT19" s="33"/>
       <c r="DU19" s="33"/>
       <c r="DV19" s="33"/>
       <c r="DW19" s="33"/>
       <c r="DX19" s="33">
-        <v>0</v>
+        <v>-3.8393928236314379E-3</v>
       </c>
       <c r="DY19" s="33"/>
       <c r="DZ19" s="33"/>
@@ -7307,50 +7253,50 @@
         <v>0</v>
       </c>
       <c r="CX21" s="36">
-        <v>-1</v>
+        <v>1.2514827676443181</v>
       </c>
       <c r="CY21" s="36">
-        <v>0</v>
+        <v>-0.6079635132744734</v>
       </c>
       <c r="CZ21" s="36">
-        <v>0</v>
+        <v>1.9223942116769934</v>
       </c>
       <c r="DA21" s="36">
-        <v>0</v>
+        <v>-0.99299997853163968</v>
       </c>
       <c r="DB21" s="38">
         <v>0</v>
       </c>
       <c r="DC21" s="38">
-        <v>-1</v>
+        <v>1.3199796594319766</v>
       </c>
       <c r="DD21" s="38">
-        <v>0</v>
+        <v>-0.85100421156860517</v>
       </c>
       <c r="DE21" s="38">
-        <v>0</v>
+        <v>4.5919518717833814</v>
       </c>
       <c r="DF21" s="38">
-        <v>0</v>
+        <v>-0.73896850259781177</v>
       </c>
       <c r="DG21" s="39"/>
       <c r="DH21" s="36">
-        <v>0</v>
+        <v>164.02721082463833</v>
       </c>
       <c r="DI21" s="36">
-        <v>0</v>
+        <v>-0.71965403339338385</v>
       </c>
       <c r="DJ21" s="36">
-        <v>0</v>
+        <v>-1.6078332196683436</v>
       </c>
       <c r="DK21" s="36">
-        <v>0</v>
+        <v>-1.962859204165984</v>
       </c>
       <c r="DL21" s="36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DM21" s="38">
-        <v>0</v>
+        <v>4.8755011252878697</v>
       </c>
       <c r="DN21" s="38">
         <v>0.01</v>
@@ -7359,41 +7305,41 @@
         <v>0.01</v>
       </c>
       <c r="DP21" s="38">
-        <v>0</v>
+        <v>2.4044923969553249</v>
       </c>
       <c r="DQ21" s="38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DR21" s="39"/>
       <c r="DS21" s="36">
         <v>0</v>
       </c>
       <c r="DT21" s="36">
-        <v>0</v>
+        <v>-0.85856933142082259</v>
       </c>
       <c r="DU21" s="36">
-        <v>0</v>
+        <v>7.7189798455125036</v>
       </c>
       <c r="DV21" s="36">
-        <v>0</v>
+        <v>-2.8112699226654172</v>
       </c>
       <c r="DW21" s="36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="DX21" s="38">
         <v>0</v>
       </c>
       <c r="DY21" s="38">
-        <v>0</v>
+        <v>-0.60140671866695294</v>
       </c>
       <c r="DZ21" s="38">
-        <v>0</v>
+        <v>54.070538631726251</v>
       </c>
       <c r="EA21" s="38">
-        <v>0</v>
+        <v>-0.98423241897422797</v>
       </c>
       <c r="EB21" s="38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="EC21" s="42"/>
     </row>
@@ -7537,14 +7483,14 @@
       <c r="CU22" s="46"/>
       <c r="CV22" s="39"/>
       <c r="CW22" s="45">
-        <v>-4.3288825935201469</v>
+        <v>1.0964367568959066</v>
       </c>
       <c r="CX22" s="45"/>
       <c r="CY22" s="45"/>
       <c r="CZ22" s="45"/>
       <c r="DA22" s="45"/>
       <c r="DB22" s="46">
-        <v>0.7532177055499778</v>
+        <v>0.38128647583196829</v>
       </c>
       <c r="DC22" s="46"/>
       <c r="DD22" s="46"/>
@@ -7552,14 +7498,14 @@
       <c r="DF22" s="46"/>
       <c r="DG22" s="39"/>
       <c r="DH22" s="45">
-        <v>-1</v>
+        <v>-1.4942280509394645</v>
       </c>
       <c r="DI22" s="45"/>
       <c r="DJ22" s="45"/>
       <c r="DK22" s="45"/>
       <c r="DL22" s="45"/>
       <c r="DM22" s="46">
-        <v>-1</v>
+        <v>-2.3511723785588301E-2</v>
       </c>
       <c r="DN22" s="46"/>
       <c r="DO22" s="46"/>
@@ -7567,14 +7513,14 @@
       <c r="DQ22" s="46"/>
       <c r="DR22" s="39"/>
       <c r="DS22" s="45">
-        <v>0</v>
+        <v>-0.47480801931176997</v>
       </c>
       <c r="DT22" s="45"/>
       <c r="DU22" s="45"/>
       <c r="DV22" s="45"/>
       <c r="DW22" s="45"/>
       <c r="DX22" s="46">
-        <v>0</v>
+        <v>-0.40932414845715726</v>
       </c>
       <c r="DY22" s="46"/>
       <c r="DZ22" s="46"/>
@@ -7635,119 +7581,16 @@
       <c r="EC24" s="18"/>
     </row>
     <row r="25" spans="1:133" x14ac:dyDescent="0.3">
-      <c r="A25" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="AH25" s="18"/>
-      <c r="AS25" s="18"/>
-      <c r="BD25" s="18"/>
-      <c r="BO25" s="18"/>
-      <c r="BZ25" s="18"/>
-      <c r="CK25" s="18"/>
-      <c r="CV25" s="18"/>
-      <c r="DG25" s="18"/>
-      <c r="DR25" s="18"/>
-      <c r="EC25" s="18"/>
+      <c r="A25"/>
     </row>
     <row r="26" spans="1:133" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="AH26" s="18"/>
-      <c r="AS26" s="18"/>
-      <c r="BD26" s="18"/>
-      <c r="BO26" s="18"/>
-      <c r="BZ26" s="18"/>
-      <c r="CK26" s="18"/>
-      <c r="CV26" s="18"/>
-      <c r="DG26" s="18"/>
-      <c r="DR26" s="18"/>
-      <c r="EC26" s="18"/>
+      <c r="A26"/>
     </row>
     <row r="27" spans="1:133" x14ac:dyDescent="0.3">
-      <c r="C27"/>
-      <c r="L27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="AH27" s="18"/>
-      <c r="AS27" s="18"/>
-      <c r="BD27" s="18"/>
-      <c r="BO27" s="18"/>
-      <c r="BZ27" s="18"/>
-      <c r="CK27" s="18"/>
-      <c r="CV27" s="18"/>
-      <c r="DG27" s="18"/>
-      <c r="DR27" s="18"/>
-      <c r="EC27" s="18"/>
-    </row>
-    <row r="28" spans="1:133" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="L28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="AH28" s="18"/>
-      <c r="AS28" s="18"/>
-      <c r="BD28" s="18"/>
-      <c r="BO28" s="18"/>
-      <c r="BZ28" s="18"/>
-      <c r="CK28" s="18"/>
-      <c r="CV28" s="18"/>
-      <c r="DG28" s="18"/>
-      <c r="DR28" s="18"/>
-      <c r="EC28" s="18"/>
-    </row>
-    <row r="29" spans="1:133" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="L29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="AH29" s="18"/>
-      <c r="AS29" s="18"/>
-      <c r="BD29" s="18"/>
-      <c r="BO29" s="18"/>
-      <c r="BZ29" s="18"/>
-      <c r="CK29" s="18"/>
-      <c r="CV29" s="18"/>
-      <c r="DG29" s="18"/>
-      <c r="DR29" s="18"/>
-      <c r="EC29" s="18"/>
-    </row>
-    <row r="30" spans="1:133" x14ac:dyDescent="0.3">
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="L30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="AH30" s="18"/>
-      <c r="AS30" s="18"/>
-      <c r="BD30" s="18"/>
-      <c r="BO30" s="18"/>
-      <c r="BZ30" s="18"/>
-      <c r="CK30" s="18"/>
-      <c r="CV30" s="18"/>
-      <c r="DG30" s="18"/>
-      <c r="DR30" s="18"/>
-      <c r="EC30" s="18"/>
-    </row>
-    <row r="31" spans="1:133" x14ac:dyDescent="0.3">
-      <c r="A31"/>
-    </row>
-    <row r="32" spans="1:133" x14ac:dyDescent="0.3">
-      <c r="A32"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="85">
@@ -7837,16 +7680,6 @@
     <mergeCell ref="AT2:BC2"/>
     <mergeCell ref="AY3:BC3"/>
   </mergeCells>
-  <conditionalFormatting sqref="B19:EB19">
-    <cfRule type="cellIs" dxfId="2" priority="24" operator="between">
-      <formula>-0.00251</formula>
-      <formula>-0.009</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="between">
-      <formula>0</formula>
-      <formula>-0.0025</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B6:EB16">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
@@ -7858,7 +7691,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="155" id="{B2B48103-C4A7-4680-884C-3D7252D9497E}">
+          <x14:cfRule type="iconSet" priority="153" id="{581017F6-5A61-4237-919D-451491E63E77}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7874,7 +7707,7 @@
           <xm:sqref>O21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="154" id="{730B2167-28F9-4B50-B891-C415BE527C64}">
+          <x14:cfRule type="iconSet" priority="152" id="{C83F2458-60E9-43D7-BD0E-E4BF58A2528C}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7890,7 +7723,7 @@
           <xm:sqref>P21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="153" id="{33F9750B-F600-40A7-9DB0-A6D29217F75C}">
+          <x14:cfRule type="iconSet" priority="151" id="{65AF093F-117C-4624-8104-C36A33AE4180}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7906,7 +7739,7 @@
           <xm:sqref>Q21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="152" id="{255518AC-6F63-4D3F-84EF-14658E70C677}">
+          <x14:cfRule type="iconSet" priority="150" id="{890992C6-0110-40D0-BD91-4B1269718300}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7922,7 +7755,7 @@
           <xm:sqref>R21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="151" id="{451D0576-908B-4F55-BC99-CA697DC9CF0D}">
+          <x14:cfRule type="iconSet" priority="149" id="{8C95006D-9C14-4716-A25E-2AB43941EB23}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7938,7 +7771,7 @@
           <xm:sqref>S21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="150" id="{5C81E200-B47D-42E7-8DC6-8314CE8FF60A}">
+          <x14:cfRule type="iconSet" priority="148" id="{04EE221C-6147-4F06-B077-59FA1DDEFA55}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7954,7 +7787,7 @@
           <xm:sqref>T21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="149" id="{7FDBC92B-1C4D-493D-A6CF-D2F12D6E3D35}">
+          <x14:cfRule type="iconSet" priority="147" id="{6E2140EB-F4B7-4DF8-99F0-44B0F804C365}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7970,7 +7803,7 @@
           <xm:sqref>U21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="148" id="{707A7384-0B0D-494E-A33B-8959B8C584FA}">
+          <x14:cfRule type="iconSet" priority="146" id="{31BA3EDC-AA9B-4CAE-BEA0-D168514C3301}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -7986,7 +7819,7 @@
           <xm:sqref>V21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="147" id="{D535D45A-DA9C-494F-94A4-0C01D26BEA82}">
+          <x14:cfRule type="iconSet" priority="145" id="{1F097A90-B9E4-418D-ABE8-0E8C1FB3EAB0}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8002,7 +7835,7 @@
           <xm:sqref>X21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="146" id="{6DD9A7FD-0B45-4380-9C3A-732C8A93EC19}">
+          <x14:cfRule type="iconSet" priority="144" id="{46767369-C02C-4055-87CC-0320860E2ED6}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8018,7 +7851,7 @@
           <xm:sqref>Y21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="145" id="{54CBE6EA-D97A-4A0A-B47E-CA7563705C82}">
+          <x14:cfRule type="iconSet" priority="143" id="{C943BC58-E4A3-4DAA-BC4E-E372FCB79E6C}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8034,7 +7867,7 @@
           <xm:sqref>X22:AB22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="144" id="{B6739F46-7C8B-40E7-85D3-0BC44EB1F5B1}">
+          <x14:cfRule type="iconSet" priority="142" id="{ABDCDAC1-6008-436C-A713-869E9C9CDE6D}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8050,7 +7883,7 @@
           <xm:sqref>AC22:AG22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="143" id="{D44C14E0-F204-45D0-8154-3D020A6DFDBB}">
+          <x14:cfRule type="iconSet" priority="141" id="{04513010-24B8-4345-B1AD-55B1B66A8ADD}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8066,7 +7899,7 @@
           <xm:sqref>Z21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="142" id="{B7D064FA-200E-4712-A53E-B0DCFCDFF599}">
+          <x14:cfRule type="iconSet" priority="140" id="{F4707528-A58B-4A0B-AC77-D1129E13318B}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8082,7 +7915,7 @@
           <xm:sqref>AA21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="141" id="{EEBCE1B3-71EF-41DD-9E99-AC190228B7A0}">
+          <x14:cfRule type="iconSet" priority="139" id="{C0E65D9D-6000-4B05-A791-CBA38335003B}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8098,7 +7931,7 @@
           <xm:sqref>AB21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="140" id="{08C8AB1E-8AA6-44E0-98C6-BCE3828D1E89}">
+          <x14:cfRule type="iconSet" priority="138" id="{A5FC3B65-7E83-4953-8591-B240A216FA7A}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8114,7 +7947,7 @@
           <xm:sqref>AC21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="139" id="{F6A3814A-7674-4621-8990-F5CFA5DD6F6E}">
+          <x14:cfRule type="iconSet" priority="137" id="{E93D138B-F758-4716-A638-16F65AFD5C39}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8130,7 +7963,7 @@
           <xm:sqref>AD21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="138" id="{863A5B66-3B61-4FEE-AD4F-1124937E5BB8}">
+          <x14:cfRule type="iconSet" priority="136" id="{28CA69E7-B0F2-4CEC-8FE2-842D32EDFDE2}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8146,7 +7979,7 @@
           <xm:sqref>AE21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="137" id="{6040F42C-4B4C-43B0-92D9-811430CC87FA}">
+          <x14:cfRule type="iconSet" priority="135" id="{D1E00E06-57E5-4335-97EB-CEF0145739C3}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8162,7 +7995,7 @@
           <xm:sqref>AF21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="136" id="{C37DD34C-E14A-4E3F-8EAA-010A579C781A}">
+          <x14:cfRule type="iconSet" priority="134" id="{D2999FDA-9682-4212-9202-E9826311F523}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8178,7 +8011,7 @@
           <xm:sqref>AG21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="135" id="{23233E81-5C22-4C28-A2A4-442E15366BFB}">
+          <x14:cfRule type="iconSet" priority="133" id="{BC12EDAE-6740-4A3A-A76A-936E182F89D2}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8194,7 +8027,7 @@
           <xm:sqref>AI22:AM22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="134" id="{BA49B214-55D0-44FD-B958-DEDCEB18DFED}">
+          <x14:cfRule type="iconSet" priority="132" id="{25252E6C-E721-4244-A0C5-054C1A854A11}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8210,7 +8043,7 @@
           <xm:sqref>AN22:AR22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="133" id="{BD167B3B-8D3A-4420-B1A1-2588AD486B39}">
+          <x14:cfRule type="iconSet" priority="131" id="{BAD5A9B8-6362-4C6B-9CD8-B4D7E0AFCC23}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8226,7 +8059,7 @@
           <xm:sqref>AI21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="132" id="{EF9B77BA-F588-4307-B5B2-439C81E6C105}">
+          <x14:cfRule type="iconSet" priority="130" id="{8536BA41-C382-4E6B-8191-43EE69FC9246}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8242,7 +8075,7 @@
           <xm:sqref>AJ21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="131" id="{6997C024-BF37-4506-9FD0-71BD404B4C6E}">
+          <x14:cfRule type="iconSet" priority="129" id="{ED67529C-F85E-428A-8D04-E690D6E6EABD}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8258,7 +8091,7 @@
           <xm:sqref>AK21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="130" id="{DCE50987-6BBA-4A26-8FE3-9C740FFE6DA2}">
+          <x14:cfRule type="iconSet" priority="128" id="{249E8D16-46C9-41C9-A97B-3A5F2C19CFD3}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8274,7 +8107,7 @@
           <xm:sqref>AL21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="129" id="{C6CD115F-B9AA-4DC1-B894-8EC7DA401E61}">
+          <x14:cfRule type="iconSet" priority="127" id="{964D1A5E-223E-45B6-8D3B-F79DB8DA4CD9}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8290,7 +8123,7 @@
           <xm:sqref>AM21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="128" id="{15FE5CB8-40D4-429A-8159-79C68B369B72}">
+          <x14:cfRule type="iconSet" priority="126" id="{74B5911D-DDAE-4A15-80A4-73CA4A6E9CF8}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8306,7 +8139,7 @@
           <xm:sqref>AN21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="127" id="{3520C3F3-BC11-43E0-8945-1C8122111760}">
+          <x14:cfRule type="iconSet" priority="125" id="{A39C1DF8-F71D-4560-84CA-E220A1E1377F}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8322,7 +8155,7 @@
           <xm:sqref>AO21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="126" id="{9E422E80-EB74-4300-B72D-3221DB5217BB}">
+          <x14:cfRule type="iconSet" priority="124" id="{EA46E58E-4E6E-47C4-8F85-6DF6AB05C003}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8338,7 +8171,7 @@
           <xm:sqref>AP21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="125" id="{59D11296-BCA7-4FFB-B0BA-CFB15B29D9BC}">
+          <x14:cfRule type="iconSet" priority="123" id="{21254897-2D3F-46E4-9C65-229B10A37B01}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8354,7 +8187,7 @@
           <xm:sqref>AQ21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="124" id="{07FBDD2F-6355-4893-8BD5-09982E738B7D}">
+          <x14:cfRule type="iconSet" priority="122" id="{DEB5120A-F7E2-4447-8ED2-731DA1677388}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8370,7 +8203,7 @@
           <xm:sqref>AR21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="123" id="{08029796-4AF3-48AC-9B85-3BB8C57FDC51}">
+          <x14:cfRule type="iconSet" priority="121" id="{A53D47C0-51A3-4B11-A467-9F81238F858C}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8386,7 +8219,7 @@
           <xm:sqref>AT21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="122" id="{11534EAD-4E57-4AA8-B9B9-620BE3E43510}">
+          <x14:cfRule type="iconSet" priority="120" id="{60BB7468-B922-4775-A7B2-878F2DED0786}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8402,7 +8235,7 @@
           <xm:sqref>AT22:AX22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="121" id="{8C41DD0E-30C6-4692-AB51-A233CE335854}">
+          <x14:cfRule type="iconSet" priority="119" id="{CE3CEAE7-4CB3-47E6-8E7B-4EA3F4C376B8}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8418,7 +8251,7 @@
           <xm:sqref>AY22:BC22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="120" id="{285F4112-4C8E-4E35-8123-4CBB76286D77}">
+          <x14:cfRule type="iconSet" priority="118" id="{1AE59722-C32C-4722-A69B-F549C5B0B145}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8434,7 +8267,7 @@
           <xm:sqref>AU21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="119" id="{914A287E-BE20-47B5-A36A-AFF8256A87D3}">
+          <x14:cfRule type="iconSet" priority="117" id="{88DD8B60-E9DA-4DC5-84A6-773E463809C9}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8450,7 +8283,7 @@
           <xm:sqref>AV21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="118" id="{925E23D5-B753-4830-A771-E11F6CAFFA4D}">
+          <x14:cfRule type="iconSet" priority="116" id="{B58AA30F-E5FD-4E98-B2BF-F455A9A175D5}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8466,7 +8299,7 @@
           <xm:sqref>AW21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="117" id="{BC806AF4-DE15-4B2C-A564-0686B87AB24B}">
+          <x14:cfRule type="iconSet" priority="115" id="{E417A3C0-85AF-4E0C-BB93-1B306B9AC5F7}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8482,7 +8315,7 @@
           <xm:sqref>AX21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="116" id="{8386BD9B-B642-4544-AE81-2AA2FA91DB49}">
+          <x14:cfRule type="iconSet" priority="114" id="{B4FC5FD6-15F4-4414-8EC3-E32533C67BB2}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8498,7 +8331,7 @@
           <xm:sqref>AY21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="115" id="{B602C110-63F2-4104-88D4-9F81D805544C}">
+          <x14:cfRule type="iconSet" priority="113" id="{0FD72811-D6F1-40C9-9E74-6E2A0E726425}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8514,7 +8347,7 @@
           <xm:sqref>AZ21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="114" id="{857D1C42-5528-41F0-A1CD-B2F12EFEA941}">
+          <x14:cfRule type="iconSet" priority="112" id="{1B7A484B-7BB4-41CC-9E68-EACC97B63B12}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8530,7 +8363,7 @@
           <xm:sqref>BA21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="113" id="{1EB0E9E4-E9E8-4E08-B9B9-8864F684B859}">
+          <x14:cfRule type="iconSet" priority="111" id="{241CF8B1-61D7-4FEC-9567-F17E58203805}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8546,7 +8379,7 @@
           <xm:sqref>BB21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="112" id="{45E540D3-5ECD-488B-946B-C001B8EECADE}">
+          <x14:cfRule type="iconSet" priority="110" id="{5C77D805-9136-4DF4-AE3E-EDD46E055BB7}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8562,7 +8395,7 @@
           <xm:sqref>BC21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="111" id="{7A696913-2079-400F-B70B-C87024836AD1}">
+          <x14:cfRule type="iconSet" priority="109" id="{031E3CA0-B0BB-4F60-8F22-19AB96836EE6}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8578,7 +8411,7 @@
           <xm:sqref>BE22:BI22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="110" id="{992BB0CC-3741-491F-9312-277971B0E9BE}">
+          <x14:cfRule type="iconSet" priority="108" id="{FBBE3E85-90B6-4375-8B15-662DB2F629B3}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8594,7 +8427,7 @@
           <xm:sqref>BJ22:BN22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="109" id="{7E288013-DA64-431F-8799-BA565AA66901}">
+          <x14:cfRule type="iconSet" priority="107" id="{F5FE2229-9DE4-4044-AE02-9E1D72096A0C}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8610,7 +8443,7 @@
           <xm:sqref>BE21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="108" id="{954AC170-8522-48CC-AAC5-CCCA7EC4E2A7}">
+          <x14:cfRule type="iconSet" priority="106" id="{8580C295-6385-4022-94DF-F1960022F002}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8626,7 +8459,7 @@
           <xm:sqref>BF21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="107" id="{8E4B6A62-0A38-4F67-A475-44A65D4E1CFC}">
+          <x14:cfRule type="iconSet" priority="105" id="{1782AC22-E5DB-4180-B96F-DE24540FDC60}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8642,7 +8475,7 @@
           <xm:sqref>BG21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="106" id="{979BC35F-B4FA-42AC-BBBC-BF3D02352EC1}">
+          <x14:cfRule type="iconSet" priority="104" id="{B22E6617-7181-4591-A5DA-0CF28FE8F4E0}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8658,7 +8491,7 @@
           <xm:sqref>BH21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="105" id="{88AD97F1-7C91-46BA-9CE4-B4F0C0609989}">
+          <x14:cfRule type="iconSet" priority="103" id="{6E75EFF1-F795-4986-B4B6-D5DBC04CBCD1}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8674,7 +8507,7 @@
           <xm:sqref>BI21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="104" id="{BFFCA5FA-198B-4AF6-83A0-C11A35BE86DA}">
+          <x14:cfRule type="iconSet" priority="102" id="{18537C58-6890-41D2-B899-ED8D1309F1A1}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8690,7 +8523,7 @@
           <xm:sqref>BJ21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="103" id="{C8C75F8B-A164-4546-A92E-B2FEB0808B1B}">
+          <x14:cfRule type="iconSet" priority="101" id="{66C4D2D4-E7FB-4303-9DD6-1644BBABDA15}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8706,7 +8539,7 @@
           <xm:sqref>BK21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="102" id="{95B17DF3-30E4-46A2-9AC7-0CC76AAE3DDB}">
+          <x14:cfRule type="iconSet" priority="100" id="{F309B36D-055B-4F29-8C97-A4A8515ACB89}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8722,7 +8555,7 @@
           <xm:sqref>BL21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="101" id="{79394C00-1199-41A1-A908-899E9AD166D2}">
+          <x14:cfRule type="iconSet" priority="99" id="{DC3F67A6-8819-4ADC-B6E8-302E3CA55931}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8738,7 +8571,7 @@
           <xm:sqref>BM21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="100" id="{170DC501-183E-45BA-8612-5D8A3B2F028F}">
+          <x14:cfRule type="iconSet" priority="98" id="{B1EB98A2-F9F7-4E43-8646-1BD71E4144DC}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8754,7 +8587,7 @@
           <xm:sqref>BN21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="99" id="{88180EF8-54B0-4110-B0A3-04C21223C073}">
+          <x14:cfRule type="iconSet" priority="97" id="{B044D09E-8B5F-4647-ADCF-ED98DD5560A6}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8770,7 +8603,7 @@
           <xm:sqref>BP22:BT22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="98" id="{34193A51-0E79-4597-B87E-A96ABE845F16}">
+          <x14:cfRule type="iconSet" priority="96" id="{DA63A54C-EEE6-4B0B-90C5-B802E5469150}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8786,7 +8619,7 @@
           <xm:sqref>BU22:BY22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="97" id="{264F7811-FF01-49A6-BFBD-AE5080EA4C2A}">
+          <x14:cfRule type="iconSet" priority="95" id="{22FE4C6B-4EF2-4F16-81FE-B7070ACFFF59}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8802,7 +8635,7 @@
           <xm:sqref>BP21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="96" id="{D4F6F99F-06C8-434F-BDF5-C9E25D14154C}">
+          <x14:cfRule type="iconSet" priority="94" id="{6A565788-F6B1-4674-818A-256D13E86F67}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8818,7 +8651,7 @@
           <xm:sqref>BQ21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="95" id="{60D02377-AA74-40A8-A2B3-45B78A0F9565}">
+          <x14:cfRule type="iconSet" priority="93" id="{C8D5FE0B-5559-4B3E-83FA-964E589810AB}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8834,7 +8667,7 @@
           <xm:sqref>BR21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="94" id="{8FB6B73F-C422-4171-99F4-8610C808C36F}">
+          <x14:cfRule type="iconSet" priority="92" id="{DD7DF59F-D7C6-42F9-934F-0076E4DF122D}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8850,7 +8683,7 @@
           <xm:sqref>BS21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="93" id="{BD340DB0-96DE-461E-A1D9-170CC966554B}">
+          <x14:cfRule type="iconSet" priority="91" id="{C2D4CADD-6A64-45C2-96D3-AC7BA0AB4425}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8866,7 +8699,7 @@
           <xm:sqref>BT21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="92" id="{CCB4CE28-42A2-4976-B23B-27D3BD8B4D8C}">
+          <x14:cfRule type="iconSet" priority="90" id="{DC75AD02-F6DD-4D56-B37B-5F1A7668EE35}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8882,7 +8715,7 @@
           <xm:sqref>BU21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="91" id="{6AC59DDE-2A28-45F7-B83E-0AB901425610}">
+          <x14:cfRule type="iconSet" priority="89" id="{A0F1FC27-FC63-442F-A116-D836DF43FD12}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8898,7 +8731,7 @@
           <xm:sqref>BV21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="90" id="{58410BC5-FA4A-40DC-8169-E769CFD06C6D}">
+          <x14:cfRule type="iconSet" priority="88" id="{8F35BCB7-6DB5-471A-87DE-F9AC66CAB288}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8914,7 +8747,7 @@
           <xm:sqref>BW21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="89" id="{25C9F184-A03C-4CEA-8AE6-7928A8129A1C}">
+          <x14:cfRule type="iconSet" priority="87" id="{47752D2C-4FAE-45A7-ADB7-A7644E838AE8}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8930,7 +8763,7 @@
           <xm:sqref>BX21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="88" id="{2D46DA0D-6A59-48A1-9947-77A4EABD13EB}">
+          <x14:cfRule type="iconSet" priority="86" id="{84AACABF-C502-419B-8F5A-EA61E19CF450}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8946,7 +8779,7 @@
           <xm:sqref>BY21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="87" id="{B8FE49A7-35C9-4B88-BF91-37EBE2778E4B}">
+          <x14:cfRule type="iconSet" priority="85" id="{F817DE43-1D11-4096-982B-3D8F772D59AC}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8962,7 +8795,7 @@
           <xm:sqref>CA22:CE22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="86" id="{47389B71-77E0-490A-B2D9-2EA996F49A71}">
+          <x14:cfRule type="iconSet" priority="84" id="{12F0FADA-011E-451C-BEEE-A354777B048A}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8978,7 +8811,7 @@
           <xm:sqref>CF22:CJ22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="85" id="{F0A3E707-7989-46B8-A99C-F06A39DB235C}">
+          <x14:cfRule type="iconSet" priority="83" id="{FBB2B991-89D3-4DB7-BCAE-72EF17AB010C}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8994,7 +8827,7 @@
           <xm:sqref>CA21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="84" id="{A77C9F0E-9756-4650-9043-DF7FF5D01264}">
+          <x14:cfRule type="iconSet" priority="82" id="{02F4E4FD-3138-48F6-910E-91DAD4A86C3C}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9010,7 +8843,7 @@
           <xm:sqref>CB21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="83" id="{30891DA4-FD76-48C9-B381-25E9A20CA1AA}">
+          <x14:cfRule type="iconSet" priority="81" id="{9EF4973C-012E-4A70-AB0D-1F43F5B8F4C9}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9026,7 +8859,7 @@
           <xm:sqref>CC21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="82" id="{4A085D56-AECE-404A-B780-A0FA978C49D8}">
+          <x14:cfRule type="iconSet" priority="80" id="{2144A778-0008-4C5E-A8FD-1F72F679D5E5}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9042,7 +8875,7 @@
           <xm:sqref>CD21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="81" id="{3F5FB2D2-E109-411B-921B-514B034F96E8}">
+          <x14:cfRule type="iconSet" priority="79" id="{9D036AD6-F675-4723-8C99-C0C3C77940E8}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9058,7 +8891,7 @@
           <xm:sqref>CE21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="80" id="{690C27CA-AC2B-4BD2-8FA4-216B38B53428}">
+          <x14:cfRule type="iconSet" priority="78" id="{01D83193-7E0A-4F64-BA58-0141566A5411}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9074,7 +8907,7 @@
           <xm:sqref>CF21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="79" id="{6211166E-EECE-475D-B8E4-92292C3E2474}">
+          <x14:cfRule type="iconSet" priority="77" id="{03E4DDC0-F909-4D63-A941-C1D06151341E}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9090,7 +8923,7 @@
           <xm:sqref>CG21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="78" id="{9FAB0C40-0DC2-4960-A0E2-FF27F1F958F0}">
+          <x14:cfRule type="iconSet" priority="76" id="{AECF401B-D052-4DC5-8664-911F4DFFA65C}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9106,7 +8939,7 @@
           <xm:sqref>CH21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="77" id="{3CE7EED5-2B24-49AA-AA7A-17CD1317DDE1}">
+          <x14:cfRule type="iconSet" priority="75" id="{EAC4014E-98E6-4279-9992-D5397C3C788D}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9122,7 +8955,7 @@
           <xm:sqref>CI21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="76" id="{DA0C4526-6C6B-43A2-9E07-0A0D249AE80E}">
+          <x14:cfRule type="iconSet" priority="74" id="{40E164C5-A1E8-4B89-9BB6-9998F7E37B8E}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9138,7 +8971,7 @@
           <xm:sqref>CJ21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="75" id="{936AAC78-BB61-41E3-9CA4-3E7C915F396B}">
+          <x14:cfRule type="iconSet" priority="73" id="{BEDB1DD7-B045-463E-8C06-A151CE585758}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9154,7 +8987,7 @@
           <xm:sqref>CL21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="74" id="{EE5BD5E7-4675-48A2-8CC7-3B9AEF67B694}">
+          <x14:cfRule type="iconSet" priority="72" id="{DD6861B4-0E6B-4801-8D3E-00507895E0A2}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9170,7 +9003,7 @@
           <xm:sqref>CL22:CP22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="73" id="{FD66E04B-D0B9-4266-A6AA-B231526E7EDD}">
+          <x14:cfRule type="iconSet" priority="71" id="{240D3E77-64DC-4FFD-B453-538CD121FB53}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9186,7 +9019,7 @@
           <xm:sqref>CQ22:CU22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="72" id="{C452EE6B-EAA2-4895-BB7F-960A8FEA8C8D}">
+          <x14:cfRule type="iconSet" priority="70" id="{03159DC3-5C0C-484C-89A3-2CEC6F24FEC6}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9202,7 +9035,7 @@
           <xm:sqref>CM21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="71" id="{0CD0BBF4-1FD2-460A-8391-154D2D009B83}">
+          <x14:cfRule type="iconSet" priority="69" id="{BCE82D62-F977-4D51-9A63-B7D49425ED30}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9218,7 +9051,7 @@
           <xm:sqref>CN21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="70" id="{32455014-79D9-4396-B2F9-C36FE7180D36}">
+          <x14:cfRule type="iconSet" priority="68" id="{C00A9E0B-4EE0-43CE-9216-41A60E0B18FC}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9234,7 +9067,7 @@
           <xm:sqref>CO21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="69" id="{254D10BC-EFE7-4919-B236-620F15D3F610}">
+          <x14:cfRule type="iconSet" priority="67" id="{9E92824A-59FE-4278-BD6F-A74EC548624E}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9250,7 +9083,7 @@
           <xm:sqref>CP21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="68" id="{8696E5E6-4FB8-42AB-B3CC-CDEAC653C9C2}">
+          <x14:cfRule type="iconSet" priority="66" id="{1ADFF2DA-B707-48D1-8790-EE6840A1E5FC}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9266,7 +9099,7 @@
           <xm:sqref>CQ21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="67" id="{FAA1C52F-E987-4E79-B5D4-B4F053D91AF2}">
+          <x14:cfRule type="iconSet" priority="65" id="{95A50328-4810-4AF8-A96D-2C1EFE2BAEAD}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9282,7 +9115,7 @@
           <xm:sqref>CW22:DA22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="66" id="{BEA56563-9288-4D57-B9FA-2315EDBBC75F}">
+          <x14:cfRule type="iconSet" priority="64" id="{B60D5F83-583C-4589-8705-39ADEB8E99A0}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9298,7 +9131,7 @@
           <xm:sqref>DB22:DF22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="65" id="{53EC7537-6A99-48E2-8708-3AE85ECB280A}">
+          <x14:cfRule type="iconSet" priority="63" id="{9D99DB60-D9FC-4C5C-9137-87BBAD9D62A9}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9314,7 +9147,7 @@
           <xm:sqref>CR21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="64" id="{1D0D2009-4219-4692-A502-2C7FF0598C16}">
+          <x14:cfRule type="iconSet" priority="62" id="{8EC6351B-5B5A-4B3E-8429-D176C15EC977}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9330,7 +9163,7 @@
           <xm:sqref>CS21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="63" id="{18F6D578-7396-4FB1-A97D-FFBEDB3FB813}">
+          <x14:cfRule type="iconSet" priority="61" id="{AFB51041-C809-4211-A3FA-A44F3B173744}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9346,7 +9179,7 @@
           <xm:sqref>CT21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="62" id="{749B5B55-DDDC-4D44-AAD9-903F74E2D54D}">
+          <x14:cfRule type="iconSet" priority="60" id="{7374620A-B29F-4032-9DD1-0F20283A0AB4}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9362,7 +9195,7 @@
           <xm:sqref>CU21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="61" id="{6A321FC6-D0EF-4139-AFDC-DF3EA41F634E}">
+          <x14:cfRule type="iconSet" priority="59" id="{649D9797-17D3-4149-9F60-AE03E78C4A62}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9378,7 +9211,7 @@
           <xm:sqref>CW21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="60" id="{268EE3A4-30AE-4528-B1A2-4C5BC811D2A1}">
+          <x14:cfRule type="iconSet" priority="58" id="{4F1FB861-5E9C-48B7-9BBF-9689FDCF6115}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9394,7 +9227,7 @@
           <xm:sqref>DB21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="59" id="{9B58CBBC-3E91-4359-8448-6343B70B31CE}">
+          <x14:cfRule type="iconSet" priority="57" id="{905A8DDE-0CC3-4158-A671-23C426CF08C7}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9410,7 +9243,7 @@
           <xm:sqref>DH21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="58" id="{A5D2792D-33FD-4D66-A70F-E68C5A2F62FB}">
+          <x14:cfRule type="iconSet" priority="56" id="{1F1B648A-0AAE-4ED7-8FF3-B729D89043D9}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9426,7 +9259,7 @@
           <xm:sqref>DM21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="57" id="{EEC88E02-BD3C-42FE-92AB-0A3B477D4668}">
+          <x14:cfRule type="iconSet" priority="55" id="{FAF30BFD-EA1B-40F0-8F06-A6CC23DC184D}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9442,7 +9275,7 @@
           <xm:sqref>DS21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="56" id="{4C989550-9254-48B1-9B07-DB099D2E2347}">
+          <x14:cfRule type="iconSet" priority="54" id="{ABA7AB30-A255-47BD-AD97-B88036D8FB19}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9458,7 +9291,7 @@
           <xm:sqref>DX21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="55" id="{49E5DDC4-9192-4946-A670-72C4D0493C9D}">
+          <x14:cfRule type="iconSet" priority="53" id="{AB080D99-BF47-4BCE-BED7-A35AD384ADBF}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9474,7 +9307,7 @@
           <xm:sqref>DH22:DL22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="54" id="{0C3A647F-E14D-4E0A-884F-5F4CBD70F68E}">
+          <x14:cfRule type="iconSet" priority="52" id="{FE4149ED-C349-4EA3-BBAB-35DC9C95ED32}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9490,7 +9323,7 @@
           <xm:sqref>DM22:DQ22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="53" id="{972D1F2D-EE45-4675-A554-EC9B0662ABC3}">
+          <x14:cfRule type="iconSet" priority="51" id="{F94CEE56-14A8-4904-9F37-20733714E2D3}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9506,7 +9339,7 @@
           <xm:sqref>DS22:DW22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="52" id="{1148D8F2-7E9D-46D5-853A-495F64DDA31C}">
+          <x14:cfRule type="iconSet" priority="50" id="{ED782E64-D019-4F9F-A79D-B6C7A4AA29A8}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9522,7 +9355,7 @@
           <xm:sqref>DX22:EB22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="51" id="{82BEE44C-6B3C-4ADA-8AA1-846A47BCD147}">
+          <x14:cfRule type="iconSet" priority="49" id="{DB2A0D92-E092-43CD-8722-F085620705FD}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9538,7 +9371,7 @@
           <xm:sqref>CX21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="50" id="{853B7322-0E3E-4B06-8658-45FE0DFF6138}">
+          <x14:cfRule type="iconSet" priority="48" id="{09632B81-7194-49C7-B4A9-FA8A03E2E664}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9554,7 +9387,7 @@
           <xm:sqref>CY21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="49" id="{EB5BDC62-DAAC-4323-A33E-1A7AE006EF40}">
+          <x14:cfRule type="iconSet" priority="47" id="{92910DB4-6B3C-4F65-B0DF-5E2855A05437}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9570,7 +9403,7 @@
           <xm:sqref>CZ21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="48" id="{AC6EDB48-3B39-4D62-A4ED-BCCD68C545A0}">
+          <x14:cfRule type="iconSet" priority="46" id="{6A77DEBF-EBB1-4DBF-A01A-CB4525082DC3}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9586,7 +9419,7 @@
           <xm:sqref>DA21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="47" id="{CBAA9BE3-8144-4188-9FF6-787B12C59CCE}">
+          <x14:cfRule type="iconSet" priority="45" id="{60E4E669-77C6-411D-B231-C12D93566A1A}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9602,7 +9435,7 @@
           <xm:sqref>DC21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="46" id="{54933F5F-22F7-49CF-A3E3-523E8A946BEE}">
+          <x14:cfRule type="iconSet" priority="44" id="{D4461615-7B34-4353-B950-5A42B4DEB63B}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9618,7 +9451,7 @@
           <xm:sqref>DD21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="45" id="{650D3410-29FE-4AAB-BF31-54A471D5325A}">
+          <x14:cfRule type="iconSet" priority="43" id="{B423FB37-5F74-42FF-B69F-D0DA0E6643E4}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9634,7 +9467,7 @@
           <xm:sqref>DE21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="44" id="{E2B61595-827C-42C2-BA3D-D757575090B2}">
+          <x14:cfRule type="iconSet" priority="42" id="{75B93480-36FB-480D-8560-286E60F4B12E}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9650,7 +9483,7 @@
           <xm:sqref>DF21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="43" id="{B62679F6-074C-4169-B9BC-7A018A49D2A8}">
+          <x14:cfRule type="iconSet" priority="41" id="{D0E69C3F-70F4-44A0-A9E9-1B8F7A268D6B}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9666,7 +9499,7 @@
           <xm:sqref>DI21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="42" id="{0861E0EC-94CB-4077-86FA-53D64394AB72}">
+          <x14:cfRule type="iconSet" priority="40" id="{65D1B78F-512E-40EE-942F-9B90780951F7}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9682,7 +9515,7 @@
           <xm:sqref>DJ21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="41" id="{881B4F0F-502F-48BD-AC8E-984CADE9E18C}">
+          <x14:cfRule type="iconSet" priority="39" id="{7E100C92-42B9-4EFD-9183-6E949561D976}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9698,7 +9531,7 @@
           <xm:sqref>DK21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="40" id="{2F4F4840-765E-41A0-BE62-6671648D9003}">
+          <x14:cfRule type="iconSet" priority="38" id="{CA602D8D-DB00-4D78-890C-365BC600ABBC}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9714,7 +9547,7 @@
           <xm:sqref>DL21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="39" id="{F9803F93-E0FC-4960-8E43-1C0630794529}">
+          <x14:cfRule type="iconSet" priority="37" id="{344AA72B-BBD6-429F-B43D-20F9501104F5}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9730,7 +9563,7 @@
           <xm:sqref>DN21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="38" id="{9C6F7571-E6D5-43E6-94DA-1A08A80B90EE}">
+          <x14:cfRule type="iconSet" priority="36" id="{3A8AAA5D-383B-4567-A667-6DC8110C44BA}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9746,7 +9579,7 @@
           <xm:sqref>DO21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="37" id="{9EC42756-EF27-4710-91C7-7B78F741A6DE}">
+          <x14:cfRule type="iconSet" priority="35" id="{F9D16C0C-ECB4-42AC-AF60-9AF9A6F7FD1D}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9762,7 +9595,7 @@
           <xm:sqref>N21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{B8B05BB0-5D77-4BE6-8F4F-2331835A5BAB}">
+          <x14:cfRule type="iconSet" priority="34" id="{E55726EF-CD20-4E18-B611-B00649FE9002}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9778,7 +9611,7 @@
           <xm:sqref>M21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="35" id="{66805980-3A20-4DD0-BD15-5BB4AD50F9BF}">
+          <x14:cfRule type="iconSet" priority="33" id="{48B64E33-609E-4212-B499-4DFB830F9790}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9794,7 +9627,7 @@
           <xm:sqref>DP21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="34" id="{CEDF68B6-8172-4FA4-8141-52FF9A5548CA}">
+          <x14:cfRule type="iconSet" priority="32" id="{047236C4-066B-4B57-BC22-539719171CC1}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9810,7 +9643,7 @@
           <xm:sqref>DQ21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{AECA7561-3B9A-415B-ABD3-30F3E180C87B}">
+          <x14:cfRule type="iconSet" priority="31" id="{27965F5B-5965-4338-88E9-FCA2994730ED}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9826,7 +9659,7 @@
           <xm:sqref>DT21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{9A86D2AF-05D7-41F2-88DF-AB4CF1564488}">
+          <x14:cfRule type="iconSet" priority="30" id="{4908077B-2998-43B8-A238-1EB5B178A7A7}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9842,7 +9675,7 @@
           <xm:sqref>DU21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{C57CE663-47B3-4D35-8688-96BABDDC01F2}">
+          <x14:cfRule type="iconSet" priority="29" id="{1510343E-6744-45D2-B922-6568762DD273}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9858,7 +9691,7 @@
           <xm:sqref>DV21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{6BFBFD87-C04C-4229-A466-72854F30163E}">
+          <x14:cfRule type="iconSet" priority="28" id="{60BC2B5C-5822-4B8E-90BB-6D1A24B9FD9C}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9874,7 +9707,7 @@
           <xm:sqref>DW21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{F2627B3C-224F-41F2-A73C-12F0531A4FBA}">
+          <x14:cfRule type="iconSet" priority="27" id="{EC3ED04D-63F9-44EB-8436-88F7B863D20F}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9890,7 +9723,7 @@
           <xm:sqref>DY21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{5622AC71-9EEB-4DCF-B7E9-0BB105493630}">
+          <x14:cfRule type="iconSet" priority="26" id="{9EC63B27-4369-40C5-94FC-424864FB2CD7}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9906,7 +9739,7 @@
           <xm:sqref>DZ21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{08C6B261-FB77-4CFF-B1EF-017EDFCB616C}">
+          <x14:cfRule type="iconSet" priority="25" id="{981AAB77-94A9-4D3A-9AFF-F03C2C522DAA}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9922,7 +9755,7 @@
           <xm:sqref>EA21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{462F90F3-11D1-417E-8AAA-6356489DDB3A}">
+          <x14:cfRule type="iconSet" priority="24" id="{9FEC2E9E-9172-4FDC-9A86-9EEB294290EE}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9938,7 +9771,7 @@
           <xm:sqref>EB21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{51694C66-DED5-4B3E-A294-9AC4BC1A7ADC}">
+          <x14:cfRule type="iconSet" priority="23" id="{10DB5445-574F-442C-9073-E0BC3378FCFC}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9954,7 +9787,7 @@
           <xm:sqref>M19:Q19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{5B0E7130-0562-44AB-A61A-BB968342367F}">
+          <x14:cfRule type="iconSet" priority="22" id="{C9E997DF-B051-47A1-91CB-A9DAA09EF018}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9970,7 +9803,7 @@
           <xm:sqref>R19:V19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{0176B772-9B43-4108-BDD2-2CD34F71C83A}">
+          <x14:cfRule type="iconSet" priority="21" id="{A2FB2AB8-60E4-4B5D-8A79-302A22C774E6}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9986,7 +9819,7 @@
           <xm:sqref>X19:AB19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{9B0B73F7-9F02-4831-933D-08BCE0ED1A1E}">
+          <x14:cfRule type="iconSet" priority="20" id="{CB31F12D-6E1A-4978-9E0A-3F14B2FEE106}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10002,7 +9835,7 @@
           <xm:sqref>AC19:AG19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{2DBFE0A2-C384-45BB-B9BA-CF83C1CBEFB2}">
+          <x14:cfRule type="iconSet" priority="19" id="{F7DE3101-EC0F-49C1-B35D-00CBFC2D8863}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10018,7 +9851,7 @@
           <xm:sqref>AI19:AM19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{7999BBE4-A4AD-457F-829E-560C994BA0AA}">
+          <x14:cfRule type="iconSet" priority="18" id="{EB4D0254-63AD-4275-865B-411A772ED347}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10034,7 +9867,7 @@
           <xm:sqref>AN19:AR19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{C546F5F0-B51C-4ADB-9F2D-1218A6C518AE}">
+          <x14:cfRule type="iconSet" priority="17" id="{90A25939-19CB-4A34-9393-79FE7CAFA1EA}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10050,7 +9883,7 @@
           <xm:sqref>AT19:AX19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{FB5B6BFA-618A-479F-8A46-057F6C26D146}">
+          <x14:cfRule type="iconSet" priority="16" id="{40E78553-AF96-4BBB-9EB9-75EE77798706}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10066,7 +9899,7 @@
           <xm:sqref>AY19:BC19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{99DC378A-19F7-4EF8-9ABC-8EEE4F335027}">
+          <x14:cfRule type="iconSet" priority="15" id="{F92F2D5C-27D5-4703-B307-BC8721D450C8}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10082,7 +9915,7 @@
           <xm:sqref>BE19:BI19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{DD6031FD-2D42-42D8-B794-CA87FAEF5253}">
+          <x14:cfRule type="iconSet" priority="14" id="{A20DA24C-A82F-455E-9AFB-0D81E3B92ED1}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10098,7 +9931,7 @@
           <xm:sqref>BJ19:BN19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{B41FE1A5-FF38-4BAD-8E66-A2D85DB41F9A}">
+          <x14:cfRule type="iconSet" priority="13" id="{422398DC-4107-4B7D-8EE4-27D91C9071D2}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10114,7 +9947,7 @@
           <xm:sqref>BP19:BT19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{300DA5ED-D724-41DE-AEC9-DA118B8C6D7B}">
+          <x14:cfRule type="iconSet" priority="12" id="{8EA22815-C3C5-447C-960C-FDF5D98AAED8}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10130,7 +9963,7 @@
           <xm:sqref>BU19:BY19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{4905E2C0-0D16-454D-9EE0-EFA3325D17FD}">
+          <x14:cfRule type="iconSet" priority="11" id="{82E0C2F8-FEBB-4402-BD78-5F3F018AD29E}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10146,7 +9979,7 @@
           <xm:sqref>CA19:CE19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{A4CF5C7E-77F5-460F-9F7C-B268B34A46D8}">
+          <x14:cfRule type="iconSet" priority="10" id="{AF23278C-F3CB-44A8-B457-ABF98A3B4E1A}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10162,7 +9995,7 @@
           <xm:sqref>CF19:CJ19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{1DB2EE29-832E-42CD-9806-48441CEF3C1A}">
+          <x14:cfRule type="iconSet" priority="9" id="{C7088210-E883-4DCE-9682-4FC617160B13}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10178,7 +10011,7 @@
           <xm:sqref>CL19:CP19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{8BB8A840-2305-45A8-B849-8A5CECE446CE}">
+          <x14:cfRule type="iconSet" priority="8" id="{F2313196-A133-4AD7-AA22-ED024737DEF8}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10194,7 +10027,7 @@
           <xm:sqref>CQ19:CU19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{FB81CE75-E3BA-4D51-A7E7-2F87219AAD2D}">
+          <x14:cfRule type="iconSet" priority="7" id="{42177CC0-7C9A-4320-865B-220776664497}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10210,7 +10043,7 @@
           <xm:sqref>CW19:DA19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{F6BC7F74-A696-442E-87C3-16FE77F511C1}">
+          <x14:cfRule type="iconSet" priority="6" id="{E3A33C37-E535-4F05-A1C7-C13932278149}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10226,7 +10059,7 @@
           <xm:sqref>DB19:DF19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{6FDA00C6-6AB4-414E-90AF-FBBA85D2FBAA}">
+          <x14:cfRule type="iconSet" priority="5" id="{75FA04CF-BFEC-4EE4-A8A9-F07257DFE809}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10242,7 +10075,7 @@
           <xm:sqref>DH19:DL19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{AFABEE9F-BA73-4107-A3D9-D6BCFB442309}">
+          <x14:cfRule type="iconSet" priority="4" id="{E238F14E-5BA2-4965-B189-9DE184361518}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10258,7 +10091,7 @@
           <xm:sqref>DM19:DQ19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{A698969C-E8FC-4A92-8939-F6307D58929A}">
+          <x14:cfRule type="iconSet" priority="3" id="{30F5408C-97C8-4544-B65B-326B978C1C29}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10274,7 +10107,7 @@
           <xm:sqref>DS19:DW19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{98FC9967-D03D-4D56-8B75-E181CA04AACC}">
+          <x14:cfRule type="iconSet" priority="2" id="{C93A89FC-3B39-4E38-83C2-E2CDC7F3A068}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
